--- a/data/financial_statements/soci/BAC.xlsx
+++ b/data/financial_statements/soci/BAC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,1589 +581,1622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>34926000000</v>
+      </c>
+      <c r="C2">
         <v>30358000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>25219000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>24550000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>23204000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>24008000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>22620000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>24019000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>21307000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>21693000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>24018000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>26735000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>27135000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>28536000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>29119000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>28799000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>28009000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>27628000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>27090000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>26900000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>23242000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>25335000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>25989000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>24900000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>22563000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>24044000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>23742000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>23313000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>22000000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>23488000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>24600000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>23426000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>22890000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>23848000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>24675000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>25416000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>24414000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>24646000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>26003000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>26634000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.5052</v>
+      </c>
+      <c r="C3">
         <v>0.2645</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1149</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0221</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.089</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.1067</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>-0.0582</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.1016</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.2148</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.2398</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.1752</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0717</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.0312</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0329</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.07489999999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0706</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.2051</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0905</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0424</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.0803</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.0301</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.0537</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0946</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.06809999999999999</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0256</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.0237</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0349</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0048</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0389</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0151</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.003</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.07829999999999999</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.0624</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>-0.0324</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.0511</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>-0.0457</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0945</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0074</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>-0.0155</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>-0.009599999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>10394000000</v>
+      </c>
+      <c r="C4">
         <v>5856000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2531000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1322000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1144000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1242000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1154000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1198000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1208000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1357000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1692000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3968000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4786000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>5729000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>6035000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>5795000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>5332000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4904000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4541000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>3830000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>3032000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>3496000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>3160000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2652000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2573000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2409000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2456000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2523000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2897000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2496000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2644000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2512000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2518000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2639000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2928000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2850000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2926000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>3116000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>3276000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>3437000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>24532000000</v>
+      </c>
+      <c r="C5">
         <v>24502000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>22688000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>23228000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>22060000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>22766000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>21466000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>22821000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>20099000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>20336000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>22326000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>22767000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>22349000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>22807000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>23084000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>23004000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>22677000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>22724000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>22549000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>23070000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>20210000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>21839000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>22829000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>22248000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>19990000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>21635000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>21286000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>20790000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>19103000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>20992000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>21956000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>20914000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>20372000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>21209000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>21747000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>22566000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>21488000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>21530000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>22727000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>23197000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>16635000000</v>
+      </c>
+      <c r="C6">
         <v>16201000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>15796000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>15349000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>14242000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>13816000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>13424000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>13655000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>13980000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>15790000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>18527000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>18236000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>14180000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>15948000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>14125000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>14237000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>13979000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>13730000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>14051000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>14676000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>14049000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>14228000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>14708000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>14928000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>14621000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>14150000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>14283000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>15626000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>15335000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>14538000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>14526000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>16379000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>14726000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>20544000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>18717000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>23008000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>17377000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>16415000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>16955000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>20937000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>7897000000</v>
+      </c>
+      <c r="C7">
         <v>8301000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6892000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>7879000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7818000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8950000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8042000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>9166000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6119000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4546000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3799000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4531000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8169000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>6859000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>8959000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>8767000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>8698000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>8994000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>8498000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>8394000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>6161000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7611000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8121000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>7320000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>5369000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>7304000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>6817000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>4977000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>3768000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>6247000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>7218000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>4322000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>5418000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>431000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>2795000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-681000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>3845000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>4845000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>5498000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>1984000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>507000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>498000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>106000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>9000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>66000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>55000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>34000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>106000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>636000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>57000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>24000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>143000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>7897000000</v>
+      </c>
+      <c r="C9">
         <v>8301000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6892000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7879000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>7818000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>8950000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8042000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>9166000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>6119000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4546000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3799000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4531000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>8169000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>6859000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>8959000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>8767000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>8698000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>8994000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>8498000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>8394000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>6161000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>7611000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>8121000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>7320000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>5923000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>7304000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>6817000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>4977000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>4400000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>6247000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>7218000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>4322000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>5418000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>431000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2795000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-681000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>3845000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>4845000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>5498000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1984000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>765000000</v>
+      </c>
+      <c r="C10">
         <v>1219000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>645000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>812000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>805000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1259000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-1182000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1116000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>649000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-335000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>266000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>521000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1175000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1082000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1611000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1456000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1420000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1827000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1714000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1476000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>3796000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>2187000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>3015000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1983000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1311000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2349000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2034000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>1505000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1340000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>1628000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>2084000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1225000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1681000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>663000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>504000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-405000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>406000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>2348000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>1486000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>501000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>7132000000</v>
+      </c>
+      <c r="C11">
         <v>7082000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6247000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7067000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7013000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>7691000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>9224000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>8050000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5470000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4881000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>3533000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4010000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6994000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>5777000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>7348000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>7311000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>7278000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>7167000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>6784000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>6918000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>2365000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>5424000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5106000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>5337000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>4612000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>4955000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>4783000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>3472000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3060000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>4619000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>5134000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>3097000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>3737000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-232000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>2291000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-276000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>3439000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>2497000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>4012000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1483000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>228000000</v>
+      </c>
+      <c r="C12">
         <v>503000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>315000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>467000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>240000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>431000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>260000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>490000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>262000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>441000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>249000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>469000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>246000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>505000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>239000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>442000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>239000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>466000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>318000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>428000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>286000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>465000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>361000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>502000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>361000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>503000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>361000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>457000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>330000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>441000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>330000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>382000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>312000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>238000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>256000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>238000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>256000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>279000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>441000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>373000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>6904000000</v>
+      </c>
+      <c r="C13">
         <v>6579000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5932000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>6600000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>6773000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7260000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>8964000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>7560000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5208000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4440000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3284000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>3541000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>6748000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>5272000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>7109000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>6869000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>7039000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>6701000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>6466000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>6490000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>2079000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>4959000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>4745000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>4835000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>4251000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>4452000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>4422000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>3015000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>2730000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>4178000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>4804000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>2715000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>3425000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-470000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>2035000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-514000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>3183000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>2218000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>3571000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>1110000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>0.8100000000000001</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.73</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.8100000000000001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.82</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.86</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.04</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.87</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.6</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.51</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.38</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.4</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.75</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0.57</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0.75</v>
-      </c>
-      <c r="P14">
-        <v>0.71</v>
       </c>
       <c r="Q14">
         <v>0.71</v>
       </c>
       <c r="R14">
+        <v>0.71</v>
+      </c>
+      <c r="S14">
         <v>0.67</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>0.64</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>0.63</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>0.2</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>0.5</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0.49</v>
-      </c>
-      <c r="X14">
-        <v>0.43</v>
       </c>
       <c r="Y14">
         <v>0.43</v>
@@ -2058,539 +2205,551 @@
         <v>0.43</v>
       </c>
       <c r="AA14">
+        <v>0.43</v>
+      </c>
+      <c r="AB14">
         <v>0.38</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>0.21</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>0.29</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>0.39</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>0.48</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>0.28</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>0.26</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-0.01</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>0.19</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-0.05</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>0.3</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>0.21</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>0.33</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>0.21</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>0.8100000000000001</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.73</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.8</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.82</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.85</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.03</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.86</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.59</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.51</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.37</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.4</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.74</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.74</v>
-      </c>
-      <c r="P15">
-        <v>0.7</v>
       </c>
       <c r="Q15">
         <v>0.7</v>
       </c>
       <c r="R15">
+        <v>0.7</v>
+      </c>
+      <c r="S15">
         <v>0.66</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.63</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.62</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>0.2</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.48</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.46</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>0.41</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.4</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>0.41</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>0.36</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>0.21</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>0.28</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>0.37</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>0.45</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>0.27</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>0.25</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-0.01</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>0.19</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-0.05</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.29</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.2</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>0.32</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>8088300000</v>
+      </c>
+      <c r="C16">
         <v>8107700000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8121600000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>8136800000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>8493300000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>8430700000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>8620800000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>8700100000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>8753200000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>8732900000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>8739900000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>8815600000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>9390500000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>9303600000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>9523200000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>9725900000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>10096500000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>10031600000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>10181700000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>10322400000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>10195600000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>10197900000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>10013500000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>10099600000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>10284100000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>10250120000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>10328420000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>10370090000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>10462280000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>10444290000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>10488140000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>10518790000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>10527820000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>10515790000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>10519360000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>10560520000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>10731170000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>10718920000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>10775870000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>10798980000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>8155700000</v>
+      </c>
+      <c r="C17">
         <v>8160800000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>8163100000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>8202100000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>8558400000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>8492800000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>8735500000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>8755600000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>8796900000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>8777500000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>8768100000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>8862700000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>9442900000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>9353000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>9559600000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>9787300000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>10236900000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>10170800000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>10309400000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>10472700000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>10778400000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>10746700000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>10834800000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>10919700000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>11046800000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>11000470000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>11059170000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>11100070000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>11236230000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>11197200000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>11238060000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>11266510000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>10584540000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>10515790000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>11265120000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>10560520000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>11491420000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>11482230000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>11524510000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>11154780000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>0.7024</v>
+      </c>
+      <c r="C18">
         <v>0.8071</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.8996</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.9462</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.9507</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.9483</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.949</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.9500999999999999</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.9433</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.9374</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.9296</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.8516</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.8236</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.7992</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.7927</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.7988</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.8096</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.8225</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.8324</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.8576</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.8695000000000001</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.862</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.8784</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.8935</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.886</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.8998</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.8966</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.8918</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.8683</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.8937</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.8925</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.8928</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.89</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.8893</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.8813</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.8879</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.8802</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.8736</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.874</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.871</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2709,1108 +2868,1135 @@
       <c r="AN19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.2261</v>
+      </c>
+      <c r="C20">
         <v>0.2734</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.2733</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3209</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.3369</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.3728</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.3555</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.3816</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.2872</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.2096</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.1582</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.1695</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.3011</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.2404</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.3077</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.3044</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.3105</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.3255</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.3137</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.312</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.2651</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.3004</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.3125</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.294</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.2625</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.3038</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.2871</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.2135</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.2</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.266</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.2934</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.1845</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.2367</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.0181</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.1133</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-0.0268</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.1575</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.1966</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.2114</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.0745</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.1977</v>
+      </c>
+      <c r="C21">
         <v>0.2167</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2352</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2688</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.2919</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.3024</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.3963</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.3148</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.2444</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2047</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.1367</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.1324</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2487</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.1847</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.2441</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2385</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.2513</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2425</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2387</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2413</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0895</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.1957</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.1826</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.1942</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.1884</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.1852</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.1863</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.1293</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.1241</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.1779</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.1953</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.1159</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1496</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-0.0197</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.0825</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-0.0202</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.1304</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.09</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.1373</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.0417</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>7132000000</v>
+      </c>
+      <c r="C22">
         <v>7082000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6247000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>7067000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>7013000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>7691000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>9224000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>8050000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>5470000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>4881000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3533000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4010000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>6994000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>5777000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>7348000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>7311000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>7278000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>7167000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>6784000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>6918000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2365000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>5424000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>5106000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>5337000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>4612000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>4955000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>4783000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>3472000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>3060000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>4619000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>5134000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>3097000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>3737000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-232000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>2291000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-276000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>3439000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>2497000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>4012000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>1483000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>7132000000</v>
+      </c>
+      <c r="C23">
         <v>7082000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>6247000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>7067000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>7013000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>7691000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>9224000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>8050000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5470000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>4881000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3533000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>4010000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>6994000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>5777000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>7348000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>7311000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>7278000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>7167000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>6784000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>6918000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2365000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>5424000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>5106000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>5337000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>4612000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>4955000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>4783000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>3472000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>3060000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>4619000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>5134000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>3097000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>3737000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-232000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>2291000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>-276000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>3439000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>2497000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>4012000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1483000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.8818</v>
+      </c>
+      <c r="C24">
         <v>0.8735000000000001</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.7692</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.8685</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.8576</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.9123</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.07</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.9253</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.6262</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.5589</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.4042</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.4549</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.7768</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.6209</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.7716</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.7517</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.7369</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.7144</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.6663</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.6702</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.218</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.5319</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.5099</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.5284</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.4517</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.4834</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.4631</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.3348</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.2945</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.4423</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.4895</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.2944</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.3547</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-0.0221</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.2178</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-0.0261</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.3226</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.233</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.3723</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.1373</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>0.8745000000000001</v>
+      </c>
+      <c r="C25">
         <v>0.8678</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.7653</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.8616</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.8555</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.9056</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.0559</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>0.9194</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.6226</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.5561</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.4029</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0.4525</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.7715</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.6177</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.7687</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.747</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.7262999999999999</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.7047</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.658</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.6606</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.2268</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.5047</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.4713</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.4887</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.4176</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.4504</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.4325</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.3128</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.2717</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.4125</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.4568</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.2749</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.3663</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-0.0221</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.2034</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-0.0261</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.2962</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.2175</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.3481</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.1329</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>0.8818</v>
+      </c>
+      <c r="C26">
         <v>0.8735000000000001</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.7692</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.8685</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.8576</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.9123</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.07</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.9253</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.6262</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.5589</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.4042</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.4549</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.7768</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.6209</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.7716</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.7517</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.7369</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.7144</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.6663</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.6702</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.218</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.5319</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.5099</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.5284</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.4517</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.4834</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.4631</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.3348</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.2945</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.4423</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.4895</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.2944</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.3547</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-0.0221</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.2178</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-0.0261</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.3226</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.233</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.3723</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.1373</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>0.8745000000000001</v>
+      </c>
+      <c r="C27">
         <v>0.8678</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.7653</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.8616</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.8555</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.9056</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>1.0559</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.9194</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.6226</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.5561</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.4029</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.4525</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.7715</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.6177</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.7687</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.747</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.7262999999999999</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.7047</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.658</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.6606</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.2268</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.5047</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.4713</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.4887</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.4176</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.4504</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.4325</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.3128</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.2717</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.4125</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.4568</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.2749</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.3663</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-0.0221</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.2034</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-0.0261</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.2962</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.2175</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.3481</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.1329</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>8160800000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>8163100000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>8202100000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>8304700000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>8492800000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>8735500000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>8755600000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>8785000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>8777500000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>8768100000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>8862700000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>9079500000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>9353000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>9559600000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>9787300000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>9996000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>10170800000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>10309400000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>10472710000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>10621810000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>10725480000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>10822070000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>10914820000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>10958620000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>11000470000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>11059170000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>10339730000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>11153170000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>11197200000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>11238060000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>11266510000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>11273770000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>10515790000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>11265120000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>10560520000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>11404440000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>11482230000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>11524510000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>11154780000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3929,126 +4115,132 @@
       <c r="AN29">
         <v>0</v>
       </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>0.4333</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-0.2002</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1.8505</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.9243</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.408</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-0.4116</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-2.1786</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>2.5623</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-1.5045</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-0.1252</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.7123</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2.1781</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-0.1998</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-0.2309</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.5244</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-0.4971</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.7096</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-0.2406</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.5001</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-0.3055</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.8014</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.3713</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-0.5216</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-0.4184</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.0219</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.6442</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.4674</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.2585</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.0983</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-0.1354</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.0105</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.0152</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.1235</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.1936</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.894</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.4913</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.3338</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1.7739</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.9938</v>
       </c>
     </row>
